--- a/Mini-Project-Part-2/output/BootcampOutputPart2.xlsx
+++ b/Mini-Project-Part-2/output/BootcampOutputPart2.xlsx
@@ -14,495 +14,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="163">
-  <si>
-    <t>BootcampName</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Recommenders</t>
-  </si>
-  <si>
-    <t>% Recommend</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>Bootcamp</t>
+  </si>
+  <si>
+    <t>Attendees</t>
+  </si>
+  <si>
+    <t>Recommend</t>
+  </si>
+  <si>
+    <t>% Recommended</t>
+  </si>
+  <si>
+    <t>General Assembly</t>
+  </si>
+  <si>
+    <t>Flatiron School</t>
+  </si>
+  <si>
+    <t>Dev Bootcamp</t>
+  </si>
+  <si>
+    <t>The Iron Yard</t>
+  </si>
+  <si>
+    <t>Prime Digital Academy</t>
+  </si>
+  <si>
+    <t>Hack Reactor</t>
+  </si>
+  <si>
+    <t>Turing</t>
+  </si>
+  <si>
+    <t>Hackbright Academy</t>
+  </si>
+  <si>
+    <t>App Academy</t>
+  </si>
+  <si>
+    <t>Bloc.io</t>
+  </si>
+  <si>
+    <t>Code Fellows</t>
+  </si>
+  <si>
+    <t>Galvanize</t>
+  </si>
+  <si>
+    <t>MakerSquare</t>
+  </si>
+  <si>
+    <t>New York Code + Design Academy</t>
+  </si>
+  <si>
+    <t>Coding Dojo</t>
+  </si>
+  <si>
+    <t>The Firehose Project</t>
+  </si>
+  <si>
+    <t>Free Code Camp is not a bootcamp - please scroll up and change answer to "no"</t>
+  </si>
+  <si>
+    <t>Epicodus</t>
+  </si>
+  <si>
+    <t>Dev Academy</t>
+  </si>
+  <si>
+    <t>Makers Academy</t>
+  </si>
+  <si>
+    <t>Tech Talent South</t>
+  </si>
+  <si>
+    <t>Coder Camps</t>
+  </si>
+  <si>
+    <t>Codeup</t>
+  </si>
+  <si>
+    <t>Launch Academy</t>
+  </si>
+  <si>
+    <t>DevMountain</t>
+  </si>
+  <si>
+    <t>Software Guild</t>
+  </si>
+  <si>
+    <t>Viking Code School</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>4Geeks Academy</t>
+  </si>
+  <si>
+    <t>CodeaCamp</t>
+  </si>
+  <si>
+    <t>IronHack</t>
+  </si>
+  <si>
+    <t>Anyone Can Learn To Code</t>
+  </si>
+  <si>
+    <t>CodeNinja</t>
+  </si>
+  <si>
+    <t>Startup Institute</t>
+  </si>
+  <si>
+    <t>Fullstack Academy</t>
+  </si>
+  <si>
+    <t>Wyncode</t>
+  </si>
+  <si>
+    <t>Thinkful</t>
+  </si>
+  <si>
+    <t>Nashville Software School</t>
+  </si>
+  <si>
+    <t>CareerFoundry</t>
+  </si>
+  <si>
+    <t>Bitmaker Labs</t>
+  </si>
+  <si>
+    <t>10x.org.il</t>
+  </si>
+  <si>
+    <t>CodeCore Bootcamp</t>
+  </si>
+  <si>
+    <t>Codesmith</t>
+  </si>
+  <si>
+    <t>Skillcrush</t>
+  </si>
+  <si>
+    <t>Camp Code Away</t>
+  </si>
+  <si>
+    <t>Lighthouse Labs</t>
+  </si>
+  <si>
+    <t>LAMP Camp</t>
+  </si>
+  <si>
+    <t>Bit Bootcamp</t>
+  </si>
+  <si>
+    <t>RefactorU</t>
+  </si>
+  <si>
+    <t>Academia de CÃ³digo</t>
+  </si>
+  <si>
+    <t>Codify Academy</t>
+  </si>
+  <si>
+    <t>Rutgers Coding Bootcamp</t>
+  </si>
+  <si>
+    <t>Devschool</t>
+  </si>
+  <si>
+    <t>devCodeCamp</t>
+  </si>
+  <si>
+    <t>Sabio.la</t>
   </si>
   <si>
     <t>Grand Circus</t>
   </si>
   <si>
+    <t>BrainStation</t>
+  </si>
+  <si>
+    <t>Tech Academy Portland</t>
+  </si>
+  <si>
+    <t>tradecraft</t>
+  </si>
+  <si>
+    <t>Zip Code Wilmington</t>
+  </si>
+  <si>
+    <t>Dev League</t>
+  </si>
+  <si>
+    <t>V School</t>
+  </si>
+  <si>
+    <t>Grace Hopper Academy</t>
+  </si>
+  <si>
+    <t>Orange County Code School</t>
+  </si>
+  <si>
+    <t>LEARN Academy</t>
+  </si>
+  <si>
+    <t>Starter League</t>
+  </si>
+  <si>
+    <t>We Can Code IT</t>
+  </si>
+  <si>
+    <t>Learn.Modern-Developer</t>
+  </si>
+  <si>
+    <t>Coding House</t>
+  </si>
+  <si>
+    <t>Telegraph Academy</t>
+  </si>
+  <si>
+    <t>We Got Coders</t>
+  </si>
+  <si>
+    <t>Code Platoon</t>
+  </si>
+  <si>
+    <t>Digital House</t>
+  </si>
+  <si>
+    <t>PDX Code Guild</t>
+  </si>
+  <si>
+    <t>Codecademy Labs</t>
+  </si>
+  <si>
+    <t>Big Nerd Ranch</t>
+  </si>
+  <si>
+    <t>BoiseCodeWorks</t>
+  </si>
+  <si>
+    <t>LearningFuze</t>
+  </si>
+  <si>
+    <t>Omaha Code School</t>
+  </si>
+  <si>
+    <t>Metis</t>
+  </si>
+  <si>
+    <t>HackerYou</t>
+  </si>
+  <si>
+    <t>Eleven Fifty Academy</t>
+  </si>
+  <si>
+    <t>Mobile Makers Academy</t>
+  </si>
+  <si>
+    <t>DigitalCrafts</t>
+  </si>
+  <si>
+    <t>Coder Factory</t>
+  </si>
+  <si>
+    <t>EHD Academy</t>
+  </si>
+  <si>
+    <t>Fire Bootcamp</t>
+  </si>
+  <si>
+    <t>CODEcamp Charleston</t>
+  </si>
+  <si>
+    <t>AcadGild</t>
+  </si>
+  <si>
+    <t>Stackademy</t>
+  </si>
+  <si>
+    <t>Science to Data Science</t>
+  </si>
+  <si>
+    <t>codeU</t>
+  </si>
+  <si>
+    <t>Le Wagon</t>
+  </si>
+  <si>
+    <t>Ruby On The Beach</t>
+  </si>
+  <si>
+    <t>Ladies Learning Code</t>
+  </si>
+  <si>
+    <t>DESIGNATION</t>
+  </si>
+  <si>
+    <t>AngelHack Education</t>
+  </si>
+  <si>
+    <t>CodeCraft School</t>
+  </si>
+  <si>
+    <t>Operation Spark</t>
+  </si>
+  <si>
+    <t>Betamore</t>
+  </si>
+  <si>
+    <t>Code Union</t>
+  </si>
+  <si>
+    <t>Code Institute</t>
+  </si>
+  <si>
+    <t>Byte Academy</t>
+  </si>
+  <si>
+    <t>Coder's Lab</t>
+  </si>
+  <si>
+    <t>SeedPaths</t>
+  </si>
+  <si>
+    <t>The Data Incubator</t>
+  </si>
+  <si>
+    <t>CodeMasters Academy</t>
+  </si>
+  <si>
+    <t>Austin Coding Academy</t>
+  </si>
+  <si>
+    <t>Founders &amp; Coders</t>
+  </si>
+  <si>
+    <t>Base10 Academy</t>
+  </si>
+  <si>
     <t>Launch School (formerly Tealeaf Academy)</t>
   </si>
   <si>
-    <t>Ladies Learning Code</t>
-  </si>
-  <si>
-    <t>CodeCraft School</t>
-  </si>
-  <si>
-    <t>Stackademy</t>
-  </si>
-  <si>
-    <t>codeU</t>
-  </si>
-  <si>
-    <t>Base10 Academy</t>
-  </si>
-  <si>
-    <t>Founders &amp; Coders</t>
-  </si>
-  <si>
-    <t>Betamore</t>
-  </si>
-  <si>
-    <t>Code Union</t>
+    <t>Microsoft Research Data Science Summer School</t>
+  </si>
+  <si>
+    <t>Origin Code Academy</t>
+  </si>
+  <si>
+    <t>Claim Academy</t>
   </si>
   <si>
     <t>Code 42</t>
   </si>
   <si>
-    <t>Academia de CÃ³digo</t>
-  </si>
-  <si>
-    <t>AngelHack Education</t>
-  </si>
-  <si>
     <t>Coder Foundry</t>
-  </si>
-  <si>
-    <t>The Data Incubator</t>
-  </si>
-  <si>
-    <t>devCodeCamp</t>
-  </si>
-  <si>
-    <t>SeedPaths</t>
-  </si>
-  <si>
-    <t>EHD Academy</t>
-  </si>
-  <si>
-    <t>CODEcamp Charleston</t>
-  </si>
-  <si>
-    <t>Eleven Fifty Academy</t>
-  </si>
-  <si>
-    <t>We Got Coders</t>
-  </si>
-  <si>
-    <t>Omaha Code School</t>
-  </si>
-  <si>
-    <t>Grace Hopper Academy</t>
-  </si>
-  <si>
-    <t>Telegraph Academy</t>
-  </si>
-  <si>
-    <t>Dev League</t>
-  </si>
-  <si>
-    <t>Codecademy Labs</t>
-  </si>
-  <si>
-    <t>DigitalCrafts</t>
-  </si>
-  <si>
-    <t>AcadGild</t>
-  </si>
-  <si>
-    <t>Coder Factory</t>
-  </si>
-  <si>
-    <t>Big Nerd Ranch</t>
-  </si>
-  <si>
-    <t>LEARN Academy</t>
-  </si>
-  <si>
-    <t>BoiseCodeWorks</t>
-  </si>
-  <si>
-    <t>Fullstack Academy</t>
-  </si>
-  <si>
-    <t>Claim Academy</t>
-  </si>
-  <si>
-    <t>CodeMasters Academy</t>
-  </si>
-  <si>
-    <t>Ruby On The Beach</t>
-  </si>
-  <si>
-    <t>Operation Spark</t>
-  </si>
-  <si>
-    <t>Le Wagon</t>
-  </si>
-  <si>
-    <t>Science to Data Science</t>
-  </si>
-  <si>
-    <t>DESIGNATION</t>
-  </si>
-  <si>
-    <t>Origin Code Academy</t>
-  </si>
-  <si>
-    <t>Byte Academy</t>
-  </si>
-  <si>
-    <t>Dev Academy</t>
-  </si>
-  <si>
-    <t>Makers Academy</t>
-  </si>
-  <si>
-    <t>Microsoft Research Data Science Summer School</t>
-  </si>
-  <si>
-    <t>Code Platoon</t>
-  </si>
-  <si>
-    <t>CodeaCamp</t>
-  </si>
-  <si>
-    <t>Viking Code School</t>
-  </si>
-  <si>
-    <t>Austin Coding Academy</t>
-  </si>
-  <si>
-    <t>Code Institute</t>
-  </si>
-  <si>
-    <t>Coder's Lab</t>
-  </si>
-  <si>
-    <t>Turing</t>
-  </si>
-  <si>
-    <t>Free Code Camp is not a bootcamp - please scroll up and change answer to "no"</t>
-  </si>
-  <si>
-    <t>Hack Reactor</t>
-  </si>
-  <si>
-    <t>Flatiron School</t>
-  </si>
-  <si>
-    <t>App Academy</t>
-  </si>
-  <si>
-    <t>MakerSquare</t>
-  </si>
-  <si>
-    <t>Ada</t>
-  </si>
-  <si>
-    <t>Hackbright Academy</t>
-  </si>
-  <si>
-    <t>Dev Bootcamp</t>
-  </si>
-  <si>
-    <t>Thinkful</t>
-  </si>
-  <si>
-    <t>Prime Digital Academy</t>
-  </si>
-  <si>
-    <t>The Firehose Project</t>
-  </si>
-  <si>
-    <t>Launch Academy</t>
-  </si>
-  <si>
-    <t>CareerFoundry</t>
-  </si>
-  <si>
-    <t>Software Guild</t>
-  </si>
-  <si>
-    <t>Nashville Software School</t>
-  </si>
-  <si>
-    <t>DevMountain</t>
-  </si>
-  <si>
-    <t>Epicodus</t>
-  </si>
-  <si>
-    <t>General Assembly</t>
-  </si>
-  <si>
-    <t>The Iron Yard</t>
-  </si>
-  <si>
-    <t>Lighthouse Labs</t>
-  </si>
-  <si>
-    <t>Skillcrush</t>
-  </si>
-  <si>
-    <t>Rutgers Coding Bootcamp</t>
-  </si>
-  <si>
-    <t>LAMP Camp</t>
-  </si>
-  <si>
-    <t>Sabio.la</t>
-  </si>
-  <si>
-    <t>Code Fellows</t>
-  </si>
-  <si>
-    <t>IronHack</t>
-  </si>
-  <si>
-    <t>CodeNinja</t>
-  </si>
-  <si>
-    <t>Anyone Can Learn To Code</t>
-  </si>
-  <si>
-    <t>New York Code + Design Academy</t>
-  </si>
-  <si>
-    <t>Learn.Modern-Developer</t>
-  </si>
-  <si>
-    <t>Tech Academy Portland</t>
-  </si>
-  <si>
-    <t>Orange County Code School</t>
-  </si>
-  <si>
-    <t>Tech Talent South</t>
-  </si>
-  <si>
-    <t>BrainStation</t>
-  </si>
-  <si>
-    <t>Coding Dojo</t>
-  </si>
-  <si>
-    <t>Bitmaker Labs</t>
-  </si>
-  <si>
-    <t>Codeup</t>
-  </si>
-  <si>
-    <t>10x.org.il</t>
-  </si>
-  <si>
-    <t>CodeCore Bootcamp</t>
-  </si>
-  <si>
-    <t>Startup Institute</t>
-  </si>
-  <si>
-    <t>Galvanize</t>
-  </si>
-  <si>
-    <t>Coder Camps</t>
-  </si>
-  <si>
-    <t>Bloc.io</t>
-  </si>
-  <si>
-    <t>Wyncode</t>
-  </si>
-  <si>
-    <t>Devschool</t>
-  </si>
-  <si>
-    <t>4Geeks Academy</t>
-  </si>
-  <si>
-    <t>Fire Bootcamp</t>
-  </si>
-  <si>
-    <t>Digital House</t>
-  </si>
-  <si>
-    <t>RefactorU</t>
-  </si>
-  <si>
-    <t>Mobile Makers Academy</t>
-  </si>
-  <si>
-    <t>HackerYou</t>
-  </si>
-  <si>
-    <t>PDX Code Guild</t>
-  </si>
-  <si>
-    <t>LearningFuze</t>
-  </si>
-  <si>
-    <t>Metis</t>
-  </si>
-  <si>
-    <t>Bit Bootcamp</t>
-  </si>
-  <si>
-    <t>Camp Code Away</t>
-  </si>
-  <si>
-    <t>Codesmith</t>
-  </si>
-  <si>
-    <t>Coding House</t>
-  </si>
-  <si>
-    <t>We Can Code IT</t>
-  </si>
-  <si>
-    <t>V School</t>
-  </si>
-  <si>
-    <t>Zip Code Wilmington</t>
-  </si>
-  <si>
-    <t>tradecraft</t>
-  </si>
-  <si>
-    <t>Starter League</t>
-  </si>
-  <si>
-    <t>Codify Academy</t>
-  </si>
-  <si>
-    <t>Atlanta Code</t>
-  </si>
-  <si>
-    <t>Astro Code School</t>
-  </si>
-  <si>
-    <t>World Tech Makers</t>
-  </si>
-  <si>
-    <t>Montana Code School</t>
-  </si>
-  <si>
-    <t>Interface Web School</t>
-  </si>
-  <si>
-    <t>Code For Progress</t>
-  </si>
-  <si>
-    <t>Data Science Dojo</t>
-  </si>
-  <si>
-    <t>DaVinci Coders</t>
-  </si>
-  <si>
-    <t>Academy X</t>
-  </si>
-  <si>
-    <t>TalentBuddy</t>
-  </si>
-  <si>
-    <t>Academic Work Academy</t>
-  </si>
-  <si>
-    <t>Alphappl</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>96.30%</t>
-  </si>
-  <si>
-    <t>93.33%</t>
-  </si>
-  <si>
-    <t>93.10%</t>
-  </si>
-  <si>
-    <t>92.59%</t>
-  </si>
-  <si>
-    <t>90.91%</t>
-  </si>
-  <si>
-    <t>90.00%</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>86.36%</t>
-  </si>
-  <si>
-    <t>85.42%</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>81.25%</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>78.57%</t>
-  </si>
-  <si>
-    <t>77.78%</t>
-  </si>
-  <si>
-    <t>77.50%</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>61.11%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>57.14%</t>
-  </si>
-  <si>
-    <t>55.00%</t>
-  </si>
-  <si>
-    <t>54.55%</t>
-  </si>
-  <si>
-    <t>52.38%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>nan%</t>
   </si>
 </sst>
 </file>
@@ -860,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>77.78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -899,13 +770,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>92.59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -913,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>85.42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -927,13 +798,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>77.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -941,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>83.33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -955,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -969,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>96.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -983,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>86.36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -997,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>132</v>
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>90.91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1011,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>52.38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1025,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1039,13 +910,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1053,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1067,13 +938,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1081,13 +952,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>61.11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1095,13 +966,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>132</v>
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>81.25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1109,13 +980,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>93.33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1123,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>78.56999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1137,13 +1008,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1151,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1165,13 +1036,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>66.67</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1179,13 +1050,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>54.55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1193,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1207,13 +1078,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1221,13 +1092,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1235,13 +1106,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1249,13 +1120,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1263,13 +1134,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>88.89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1277,13 +1148,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1291,13 +1162,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1305,13 +1176,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1319,13 +1190,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1333,13 +1204,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1347,13 +1218,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>57.14</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1361,13 +1232,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>132</v>
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1375,13 +1246,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1389,13 +1260,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>83.33</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1403,13 +1274,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1417,13 +1288,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1431,13 +1302,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1445,13 +1316,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1459,13 +1330,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1473,13 +1344,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1487,13 +1358,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1501,13 +1372,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1515,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1529,13 +1400,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1543,13 +1414,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1557,13 +1428,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1571,13 +1442,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>132</v>
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1585,13 +1456,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
-        <v>132</v>
+      <c r="D52">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1599,13 +1470,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1613,13 +1484,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1627,13 +1498,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s">
-        <v>135</v>
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1641,13 +1512,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>50</v>
-      </c>
-      <c r="D56" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1655,13 +1526,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>20</v>
-      </c>
-      <c r="D57" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1669,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>66.67</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1683,13 +1554,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>139</v>
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>66.67</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1697,13 +1568,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>33.33</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1711,13 +1582,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>41</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>33.33</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1725,13 +1596,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1739,13 +1610,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>25</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>33.33</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1753,13 +1624,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>143</v>
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1767,13 +1638,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>66.67</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1781,13 +1652,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1795,13 +1666,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>33.33</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1809,13 +1680,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>33.33</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1823,13 +1694,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>66.67</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1837,13 +1708,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>33.33</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1851,13 +1722,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>70</v>
-      </c>
-      <c r="D71" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1865,13 +1736,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>31</v>
-      </c>
-      <c r="D72" t="s">
-        <v>147</v>
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1879,13 +1750,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1893,13 +1764,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1907,13 +1778,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1921,13 +1792,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
-        <v>148</v>
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1935,13 +1806,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77" t="s">
-        <v>148</v>
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1949,13 +1820,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1963,13 +1834,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1977,13 +1848,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
-        <v>149</v>
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1991,13 +1862,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2005,13 +1876,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2019,13 +1890,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
-      <c r="D83" t="s">
-        <v>151</v>
+      <c r="D83">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2033,13 +1904,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2047,13 +1918,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
-      <c r="D85" t="s">
-        <v>151</v>
+      <c r="D85">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2061,13 +1932,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2075,13 +1946,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
-      <c r="D87" t="s">
-        <v>151</v>
+      <c r="D87">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2089,13 +1960,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
-        <v>152</v>
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2103,13 +1974,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>153</v>
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2117,13 +1988,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>153</v>
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2131,13 +2002,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>153</v>
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2145,13 +2016,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>3</v>
-      </c>
-      <c r="D92" t="s">
-        <v>153</v>
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2159,13 +2030,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2173,13 +2044,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2187,13 +2058,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2201,13 +2072,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2215,13 +2086,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2229,13 +2100,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2243,13 +2114,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2257,13 +2128,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" t="s">
-        <v>158</v>
+      <c r="D100">
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2271,13 +2142,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" t="s">
-        <v>158</v>
+      <c r="D101">
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2285,13 +2156,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2299,13 +2170,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" t="s">
-        <v>158</v>
+      <c r="D103">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2313,13 +2184,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
-      <c r="D104" t="s">
-        <v>158</v>
+      <c r="D104">
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2327,13 +2198,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" t="s">
-        <v>158</v>
+      <c r="D105">
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2341,13 +2212,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106" t="s">
-        <v>158</v>
+      <c r="D106">
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2355,13 +2226,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107" t="s">
-        <v>158</v>
+      <c r="D107">
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2369,13 +2240,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2383,13 +2254,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2397,13 +2268,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2411,13 +2282,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
-      <c r="D111" t="s">
-        <v>159</v>
+      <c r="D111">
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2425,13 +2296,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
-      <c r="D112" t="s">
-        <v>159</v>
+      <c r="D112">
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2439,13 +2310,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113" t="s">
-        <v>159</v>
+      <c r="D113">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2453,13 +2324,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114" t="s">
-        <v>159</v>
+      <c r="D114">
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2467,13 +2338,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115" t="s">
-        <v>159</v>
+      <c r="D115">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2481,13 +2352,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
-      <c r="D116" t="s">
-        <v>159</v>
+      <c r="D116">
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2495,172 +2366,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
-      <c r="D117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>162</v>
+      <c r="D117">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
